--- a/metrics/transfer_time/cleaned_data/nginx_11._opt.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_11._opt.xlsx
@@ -3313,11 +3313,21 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>1688900</v>
+      </c>
+      <c r="C144" t="n">
+        <v>59.63</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2495164</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4161851</v>
+      </c>
+      <c r="F144" t="n">
+        <v>32453</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
